--- a/supplement/supplement_result.xlsx
+++ b/supplement/supplement_result.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoy\Desktop\supplement\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B900BEDF-AF0B-4F5A-9A15-9A2DAA73D910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="3555" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,15 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
   <si>
     <t>Benchmarks</t>
   </si>
   <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>PresetN</t>
+    <t>Template 1</t>
   </si>
   <si>
     <t>Our</t>
@@ -48,7 +41,7 @@
     <t>Z3</t>
   </si>
   <si>
-    <t>PolySynth</t>
+    <t>cvc5</t>
   </si>
   <si>
     <t>PENBMI</t>
@@ -60,24 +53,83 @@
     <t>ex1</t>
   </si>
   <si>
+    <t>a0+a1*x1+a2*x1^2</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>ex2</t>
+  </si>
+  <si>
+    <t>a0+a1*x1+a2*x2+
+a3*x1*x2+a4*x1^2+a5*x2^2</t>
+  </si>
+  <si>
+    <t>&gt;3600</t>
+  </si>
+  <si>
+    <t>ex3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ex4 0.01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ex4 0.001</t>
+    </r>
+  </si>
+  <si>
+    <t>cav13-1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cav13-2</t>
+    </r>
+  </si>
+  <si>
+    <t>inv=a0+a1*x1+a2*x2
+a3*x1^2+a4*x2^2+a5*x1*x2</t>
+  </si>
+  <si>
+    <t>cohencu</t>
+  </si>
+  <si>
+    <t>unicycle</t>
+  </si>
+  <si>
+    <t>circuit</t>
+  </si>
+  <si>
+    <t>Template 2</t>
+  </si>
+  <si>
     <t>1+a1*x1+a2*x1^2</t>
   </si>
   <si>
-    <t>&gt;3600</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>ex2</t>
-  </si>
-  <si>
     <t>1+a1*x1^2+a2*x2^2</t>
   </si>
   <si>
-    <t>ex3</t>
-  </si>
-  <si>
     <t>ex4</t>
   </si>
   <si>
@@ -85,9 +137,6 @@
   </si>
   <si>
     <t>ex4_001</t>
-  </si>
-  <si>
-    <t>cav13-1</t>
   </si>
   <si>
     <t>a0+a1*x1^2+a2*x2^2</t>
@@ -100,13 +149,7 @@
 a2*x1**2+a3*x2**2</t>
   </si>
   <si>
-    <t>cohencu</t>
-  </si>
-  <si>
     <t>a0+a1*x1+a2*x2+a3*x1**2</t>
-  </si>
-  <si>
-    <t>unicycle</t>
   </si>
   <si>
     <t xml:space="preserve">a0+a1*x1*x2+
@@ -114,22 +157,21 @@
 </t>
   </si>
   <si>
-    <t>circuit</t>
-  </si>
-  <si>
     <t>a0+a1*x1^2 + 
 a2*x2^2 +a3*x1*x2</t>
-  </si>
-  <si>
-    <t>Failed</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,29 +199,345 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -202,184 +560,366 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -390,7 +930,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -418,40 +958,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -701,27 +1355,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="6" max="6" width="9.375"/>
+    <col min="5" max="6" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -743,272 +1396,492 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="3">
+        <v>0.29</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.29</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.56</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="21.95" customHeight="1" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="28" customHeight="1" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
         <v>0.67</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="32" customHeight="1" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="29" customHeight="1" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="10" ht="34.5" customHeight="1" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.58</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="30.95" customHeight="1" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="D27" s="1">
         <v>1.86</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:7">
+      <c r="A29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.02</v>
-      </c>
-      <c r="E3" s="1">
-        <v>7.18</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1">
         <v>0.35</v>
       </c>
-      <c r="E4" s="3">
+      <c r="D29" s="6">
         <v>0.13</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="E29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.14</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:7">
+      <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" ht="28.5" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="1">
         <v>0.34</v>
       </c>
-      <c r="E5" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.53</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.39</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="35" ht="42.75" spans="1:7">
+      <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="6">
+        <v>19.06</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" ht="28.5" spans="1:7">
+      <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.87</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.87</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.21</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>19.059999999999999</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.86</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B36" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="6">
         <v>1.62</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4">
-        <v>3600.0039999999999</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>28</v>
+      <c r="D36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="8">
+        <v>3600.004</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>